--- a/refs/heads/main/StructureDefinition-svc-immunization.xlsx
+++ b/refs/heads/main/StructureDefinition-svc-immunization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="509">
   <si>
     <t>Path</t>
   </si>
@@ -858,7 +858,7 @@
     <t>Immunization.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-patient-updated)
+    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-patient)
 </t>
   </si>
   <si>
@@ -1578,6 +1578,9 @@
   <si>
     <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-organization)
 </t>
+  </si>
+  <si>
+    <t>http://fhir.org/guides/who/svc-rc1/ValueSet/who-svc-vaccinable-confitions</t>
   </si>
 </sst>
 </file>
@@ -1759,7 +1762,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.26171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.6796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -12039,7 +12042,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>244</v>
+        <v>508</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>41</v>

--- a/refs/heads/main/StructureDefinition-svc-immunization.xlsx
+++ b/refs/heads/main/StructureDefinition-svc-immunization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="508">
   <si>
     <t>Path</t>
   </si>
@@ -387,7 +387,7 @@
     <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/id</t>
   </si>
   <si>
-    <t>Identifier_URN</t>
+    <t>SVC_Identifier</t>
   </si>
   <si>
     <t>Immunization.identifier.id</t>
@@ -498,9 +498,6 @@
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:uuid</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -3655,46 +3652,46 @@
         <v>41</v>
       </c>
       <c r="R17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S17" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="S17" t="s" s="2">
+      <c r="T17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3712,10 +3709,10 @@
         <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>41</v>
@@ -3726,7 +3723,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3752,13 +3749,13 @@
         <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3772,43 +3769,43 @@
         <v>41</v>
       </c>
       <c r="S18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3826,10 +3823,10 @@
         <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>41</v>
@@ -3840,7 +3837,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3863,13 +3860,13 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3920,7 +3917,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3938,10 +3935,10 @@
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>41</v>
@@ -3952,7 +3949,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3975,16 +3972,16 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4034,7 +4031,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4052,10 +4049,10 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -4066,7 +4063,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4092,13 +4089,13 @@
         <v>71</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4127,11 +4124,11 @@
         <v>134</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>41</v>
       </c>
@@ -4148,7 +4145,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>51</v>
@@ -4163,16 +4160,16 @@
         <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -4180,7 +4177,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4206,13 +4203,13 @@
         <v>140</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4238,14 +4235,14 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
       </c>
@@ -4262,7 +4259,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4277,13 +4274,13 @@
         <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
@@ -4294,7 +4291,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4320,10 +4317,10 @@
         <v>140</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4350,14 +4347,14 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
       </c>
@@ -4374,7 +4371,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>51</v>
@@ -4389,24 +4386,24 @@
         <v>63</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4518,7 +4515,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4632,7 +4629,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4655,19 +4652,19 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4716,7 +4713,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4734,10 +4731,10 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4748,7 +4745,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4860,7 +4857,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4974,7 +4971,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5000,16 +4997,16 @@
         <v>65</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -5019,46 +5016,46 @@
         <v>41</v>
       </c>
       <c r="R29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -5076,10 +5073,10 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -5090,7 +5087,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5116,13 +5113,13 @@
         <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5172,7 +5169,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5190,10 +5187,10 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -5204,7 +5201,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5230,14 +5227,14 @@
         <v>71</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -5266,25 +5263,25 @@
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5302,10 +5299,10 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -5316,7 +5313,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5342,14 +5339,14 @@
         <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -5398,7 +5395,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5416,10 +5413,10 @@
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -5430,7 +5427,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5453,19 +5450,19 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5514,7 +5511,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5532,10 +5529,10 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -5546,7 +5543,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5572,16 +5569,16 @@
         <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5630,7 +5627,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5648,10 +5645,10 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5662,7 +5659,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5685,13 +5682,13 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5742,7 +5739,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>51</v>
@@ -5757,16 +5754,16 @@
         <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5774,7 +5771,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5797,13 +5794,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5854,7 +5851,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5869,16 +5866,16 @@
         <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5886,7 +5883,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5909,16 +5906,16 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5968,7 +5965,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>51</v>
@@ -5983,24 +5980,24 @@
         <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6023,13 +6020,13 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6080,7 +6077,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6101,10 +6098,10 @@
         <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -6112,7 +6109,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6135,16 +6132,16 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6194,7 +6191,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6212,13 +6209,13 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -6226,7 +6223,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6252,13 +6249,13 @@
         <v>140</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6284,14 +6281,14 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
       </c>
@@ -6308,7 +6305,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6326,13 +6323,13 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6340,7 +6337,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6363,13 +6360,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6420,7 +6417,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6435,16 +6432,16 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6452,7 +6449,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6475,13 +6472,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6532,7 +6529,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6550,21 +6547,21 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6590,10 +6587,10 @@
         <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6644,7 +6641,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6662,21 +6659,21 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6699,13 +6696,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6756,7 +6753,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6774,10 +6771,10 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6788,7 +6785,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6814,10 +6811,10 @@
         <v>140</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6844,14 +6841,14 @@
         <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>41</v>
       </c>
@@ -6868,7 +6865,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6886,21 +6883,21 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>350</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6926,10 +6923,10 @@
         <v>140</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6956,14 +6953,14 @@
         <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>41</v>
       </c>
@@ -6980,7 +6977,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6998,21 +6995,21 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>358</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7035,13 +7032,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7092,7 +7089,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7110,10 +7107,10 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -7124,7 +7121,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7147,13 +7144,13 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7204,7 +7201,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7219,13 +7216,13 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
@@ -7236,7 +7233,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7348,7 +7345,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7462,11 +7459,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7488,10 +7485,10 @@
         <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>100</v>
@@ -7546,7 +7543,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7578,7 +7575,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7604,10 +7601,10 @@
         <v>140</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7637,11 +7634,11 @@
         <v>145</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7658,7 +7655,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7673,13 +7670,13 @@
         <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7690,7 +7687,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7713,16 +7710,16 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7772,7 +7769,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>51</v>
@@ -7787,16 +7784,16 @@
         <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7804,7 +7801,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7827,13 +7824,13 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7884,7 +7881,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7899,13 +7896,13 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7916,7 +7913,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7942,10 +7939,10 @@
         <v>140</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7972,14 +7969,14 @@
         <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="Z55" t="s" s="2">
         <v>41</v>
       </c>
@@ -7996,7 +7993,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8011,13 +8008,13 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -8028,7 +8025,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8051,13 +8048,13 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8108,7 +8105,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8123,7 +8120,7 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>41</v>
@@ -8140,7 +8137,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8163,23 +8160,23 @@
         <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>41</v>
@@ -8224,7 +8221,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8242,7 +8239,7 @@
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>94</v>
@@ -8256,7 +8253,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8282,10 +8279,10 @@
         <v>140</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8312,14 +8309,14 @@
         <v>41</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>41</v>
       </c>
@@ -8336,7 +8333,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8368,7 +8365,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8391,13 +8388,13 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8448,7 +8445,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8460,7 +8457,7 @@
         <v>41</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>41</v>
@@ -8480,7 +8477,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8592,7 +8589,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8706,11 +8703,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8732,10 +8729,10 @@
         <v>97</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>100</v>
@@ -8790,7 +8787,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8822,7 +8819,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8848,10 +8845,10 @@
         <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8902,7 +8899,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8920,7 +8917,7 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>94</v>
@@ -8934,7 +8931,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8960,10 +8957,10 @@
         <v>65</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9014,7 +9011,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9046,7 +9043,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9069,13 +9066,13 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9126,7 +9123,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9144,7 +9141,7 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>94</v>
@@ -9158,7 +9155,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9181,13 +9178,13 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9238,7 +9235,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9256,7 +9253,7 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>94</v>
@@ -9270,7 +9267,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9296,10 +9293,10 @@
         <v>140</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9326,14 +9323,14 @@
         <v>41</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>449</v>
-      </c>
       <c r="Z67" t="s" s="2">
         <v>41</v>
       </c>
@@ -9350,7 +9347,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9368,7 +9365,7 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>94</v>
@@ -9382,7 +9379,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9408,10 +9405,10 @@
         <v>140</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9438,14 +9435,14 @@
         <v>41</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Y68" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
       </c>
@@ -9462,7 +9459,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9494,7 +9491,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9517,16 +9514,16 @@
         <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9576,7 +9573,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9594,10 +9591,10 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -9608,7 +9605,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9720,7 +9717,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9834,11 +9831,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9860,10 +9857,10 @@
         <v>97</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>100</v>
@@ -9918,7 +9915,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9950,7 +9947,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9973,13 +9970,13 @@
         <v>41</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10030,7 +10027,7 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10048,10 +10045,10 @@
         <v>41</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
@@ -10062,7 +10059,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10085,13 +10082,13 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10142,7 +10139,7 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10160,10 +10157,10 @@
         <v>41</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
@@ -10174,7 +10171,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10197,13 +10194,13 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10254,7 +10251,7 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10272,10 +10269,10 @@
         <v>41</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>
@@ -10286,7 +10283,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10309,13 +10306,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10354,7 +10351,7 @@
         <v>41</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AB76" s="2"/>
       <c r="AC76" t="s" s="2">
@@ -10364,7 +10361,7 @@
         <v>113</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10396,7 +10393,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10508,7 +10505,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10622,11 +10619,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10648,10 +10645,10 @@
         <v>97</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>100</v>
@@ -10706,7 +10703,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10738,7 +10735,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10764,10 +10761,10 @@
         <v>53</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10818,7 +10815,7 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10850,7 +10847,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10873,13 +10870,13 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10930,7 +10927,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -10962,7 +10959,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10988,10 +10985,10 @@
         <v>140</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11018,14 +11015,14 @@
         <v>41</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
       </c>
@@ -11042,7 +11039,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11074,7 +11071,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11097,16 +11094,16 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11156,7 +11153,7 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>51</v>
@@ -11188,7 +11185,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11211,16 +11208,16 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="M84" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11270,7 +11267,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11302,10 +11299,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>41</v>
@@ -11327,13 +11324,13 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11384,7 +11381,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11416,7 +11413,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11528,7 +11525,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11642,11 +11639,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11668,10 +11665,10 @@
         <v>97</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>100</v>
@@ -11726,7 +11723,7 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11758,7 +11755,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11784,10 +11781,10 @@
         <v>53</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11838,7 +11835,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -11870,7 +11867,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11893,13 +11890,13 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11950,7 +11947,7 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -11982,7 +11979,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12008,10 +12005,10 @@
         <v>140</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12042,7 +12039,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>41</v>
@@ -12060,7 +12057,7 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12092,7 +12089,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12115,16 +12112,16 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12174,7 +12171,7 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>51</v>
@@ -12206,7 +12203,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12229,16 +12226,16 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L93" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="M93" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12288,7 +12285,7 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>

--- a/refs/heads/main/StructureDefinition-svc-immunization.xlsx
+++ b/refs/heads/main/StructureDefinition-svc-immunization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$94</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="509">
   <si>
     <t>Path</t>
   </si>
@@ -701,6 +701,9 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
+    <t>SVC_Vaccine</t>
+  </si>
+  <si>
     <t>Immunization.vaccineCode.coding.id</t>
   </si>
   <si>
@@ -1206,7 +1209,7 @@
     <t>Immunization.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-practitioner)
+    <t xml:space="preserve">Reference(http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-practitioner|http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-organization)
 </t>
   </si>
   <si>
@@ -1726,7 +1729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN93"/>
+  <dimension ref="A1:AN94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4640,7 +4643,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>41</v>
@@ -4701,16 +4704,14 @@
         <v>41</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>218</v>
@@ -4745,15 +4746,17 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>51</v>
@@ -4765,19 +4768,23 @@
         <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
       </c>
@@ -4825,28 +4832,28 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4861,14 +4868,14 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>41</v>
@@ -4880,17 +4887,15 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4927,31 +4932,31 @@
         <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>41</v>
@@ -4969,45 +4974,43 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>41</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>41</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>41</v>
@@ -5043,40 +5046,40 @@
         <v>41</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -5085,9 +5088,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5095,13 +5098,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>41</v>
@@ -5110,18 +5113,20 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
       </c>
@@ -5130,7 +5135,7 @@
         <v>41</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>41</v>
@@ -5169,7 +5174,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5187,10 +5192,10 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -5199,9 +5204,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5209,13 +5214,13 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -5224,18 +5229,18 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
       </c>
@@ -5259,11 +5264,13 @@
         <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
@@ -5281,7 +5288,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5299,10 +5306,10 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -5311,9 +5318,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5321,13 +5328,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
@@ -5336,17 +5343,17 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -5371,13 +5378,11 @@
         <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>41</v>
@@ -5395,7 +5400,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5413,10 +5418,10 @@
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -5427,7 +5432,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5450,19 +5455,17 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>255</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5511,7 +5514,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5529,10 +5532,10 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -5543,7 +5546,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5566,19 +5569,19 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>53</v>
+        <v>256</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5627,7 +5630,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5645,10 +5648,10 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5659,7 +5662,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5667,7 +5670,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
@@ -5682,16 +5685,20 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>41</v>
       </c>
@@ -5739,10 +5746,10 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>51</v>
@@ -5754,16 +5761,16 @@
         <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>278</v>
+        <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5771,7 +5778,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5779,7 +5786,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>51</v>
@@ -5791,16 +5798,16 @@
         <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5851,10 +5858,10 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>51</v>
@@ -5866,16 +5873,16 @@
         <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5883,7 +5890,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5891,7 +5898,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>51</v>
@@ -5903,20 +5910,18 @@
         <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
@@ -5965,10 +5970,10 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>51</v>
@@ -5980,24 +5985,24 @@
         <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>296</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6005,7 +6010,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>51</v>
@@ -6017,18 +6022,20 @@
         <v>41</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -6077,10 +6084,10 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>51</v>
@@ -6092,24 +6099,24 @@
         <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>41</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6129,20 +6136,18 @@
         <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -6191,7 +6196,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6209,13 +6214,13 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -6223,7 +6228,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6243,19 +6248,19 @@
         <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6281,13 +6286,13 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>313</v>
+        <v>41</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>314</v>
+        <v>41</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
@@ -6305,7 +6310,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6323,13 +6328,13 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6337,7 +6342,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6360,15 +6365,17 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>317</v>
+        <v>140</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -6393,13 +6400,13 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>41</v>
+        <v>314</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -6417,7 +6424,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6432,16 +6439,16 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>320</v>
+        <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6449,7 +6456,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6472,13 +6479,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>175</v>
+        <v>318</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6529,7 +6536,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6544,24 +6551,24 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>329</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6575,7 +6582,7 @@
         <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>41</v>
@@ -6584,13 +6591,13 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6641,7 +6648,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6659,21 +6666,21 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6696,13 +6703,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>337</v>
+        <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6753,7 +6760,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6771,21 +6778,21 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>41</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6799,7 +6806,7 @@
         <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
@@ -6808,13 +6815,13 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6841,13 +6848,13 @@
         <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>345</v>
+        <v>41</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>346</v>
+        <v>41</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>41</v>
@@ -6865,7 +6872,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6883,21 +6890,21 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>349</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6923,10 +6930,10 @@
         <v>140</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6956,10 +6963,10 @@
         <v>195</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>41</v>
@@ -6977,7 +6984,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6995,21 +7002,21 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7032,13 +7039,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>359</v>
+        <v>140</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7065,13 +7072,13 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>41</v>
+        <v>355</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -7089,7 +7096,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7107,21 +7114,21 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>41</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7129,28 +7136,28 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7201,13 +7208,13 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>41</v>
@@ -7216,13 +7223,13 @@
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>368</v>
+        <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
@@ -7231,9 +7238,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7241,28 +7248,28 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>53</v>
+        <v>366</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>120</v>
+        <v>367</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>121</v>
+        <v>368</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7313,28 +7320,28 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>122</v>
+        <v>365</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>41</v>
+        <v>369</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>123</v>
+        <v>371</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7349,14 +7356,14 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>41</v>
@@ -7368,17 +7375,15 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>41</v>
@@ -7427,19 +7432,19 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>41</v>
@@ -7463,7 +7468,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>374</v>
+        <v>96</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7476,26 +7481,24 @@
         <v>41</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>375</v>
+        <v>98</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
       </c>
@@ -7543,7 +7546,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7564,7 +7567,7 @@
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7575,39 +7578,43 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7631,13 +7638,13 @@
         <v>41</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>381</v>
+        <v>41</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>382</v>
+        <v>41</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
@@ -7661,22 +7668,22 @@
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>383</v>
+        <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>384</v>
+        <v>94</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7687,7 +7694,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7695,7 +7702,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>51</v>
@@ -7710,17 +7717,15 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>386</v>
+        <v>140</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>41</v>
@@ -7745,13 +7750,13 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7769,10 +7774,10 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>51</v>
@@ -7784,16 +7789,16 @@
         <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>392</v>
+        <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7801,7 +7806,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7809,10 +7814,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>41</v>
@@ -7824,15 +7829,17 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>41</v>
@@ -7881,13 +7888,13 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>41</v>
@@ -7896,16 +7903,16 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>398</v>
+        <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>41</v>
+        <v>393</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7913,7 +7920,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7933,16 +7940,16 @@
         <v>41</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>140</v>
+        <v>395</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7969,13 +7976,13 @@
         <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>403</v>
+        <v>41</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>404</v>
+        <v>41</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>41</v>
@@ -7993,7 +8000,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8008,13 +8015,13 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>41</v>
+        <v>399</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -8025,7 +8032,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8048,13 +8055,13 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>408</v>
+        <v>140</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8081,13 +8088,13 @@
         <v>41</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>41</v>
+        <v>404</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>41</v>
+        <v>405</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>41</v>
@@ -8105,7 +8112,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8120,13 +8127,13 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>94</v>
+        <v>407</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -8137,7 +8144,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8148,36 +8155,32 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>255</v>
+        <v>409</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P57" t="s" s="2">
-        <v>415</v>
-      </c>
+      <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
         <v>41</v>
       </c>
@@ -8221,13 +8224,13 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>41</v>
@@ -8236,10 +8239,10 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>41</v>
+        <v>411</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>416</v>
+        <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>94</v>
@@ -8253,7 +8256,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8264,32 +8267,36 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="Q58" t="s" s="2">
         <v>41</v>
       </c>
@@ -8309,13 +8316,13 @@
         <v>41</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>420</v>
+        <v>41</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>421</v>
+        <v>41</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>41</v>
@@ -8333,13 +8340,13 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>41</v>
@@ -8351,7 +8358,7 @@
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>41</v>
+        <v>417</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>94</v>
@@ -8365,7 +8372,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8388,13 +8395,13 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>365</v>
+        <v>140</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8421,13 +8428,13 @@
         <v>41</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>41</v>
+        <v>421</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>41</v>
+        <v>422</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>41</v>
@@ -8445,7 +8452,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8457,7 +8464,7 @@
         <v>41</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>425</v>
+        <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>41</v>
@@ -8477,7 +8484,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8488,7 +8495,7 @@
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>41</v>
@@ -8500,13 +8507,13 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>53</v>
+        <v>366</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>120</v>
+        <v>424</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>121</v>
+        <v>425</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8557,19 +8564,19 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>122</v>
+        <v>423</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>41</v>
+        <v>426</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>41</v>
@@ -8578,7 +8585,7 @@
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
@@ -8593,14 +8600,14 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>41</v>
@@ -8612,17 +8619,15 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>41</v>
@@ -8671,19 +8676,19 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>41</v>
@@ -8707,7 +8712,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>374</v>
+        <v>96</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8720,26 +8725,24 @@
         <v>41</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>375</v>
+        <v>98</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N62" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>41</v>
       </c>
@@ -8787,7 +8790,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8808,7 +8811,7 @@
         <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
@@ -8823,35 +8826,39 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>430</v>
+        <v>376</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>41</v>
       </c>
@@ -8899,25 +8906,25 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>432</v>
+        <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>94</v>
@@ -8931,7 +8938,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8954,13 +8961,13 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9011,7 +9018,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9029,7 +9036,7 @@
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>41</v>
+        <v>433</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>94</v>
@@ -9043,7 +9050,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9066,13 +9073,13 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>288</v>
+        <v>65</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9123,7 +9130,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9141,7 +9148,7 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>439</v>
+        <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>94</v>
@@ -9155,7 +9162,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9178,13 +9185,13 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9235,7 +9242,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9253,7 +9260,7 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>94</v>
@@ -9267,7 +9274,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9278,7 +9285,7 @@
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>41</v>
@@ -9290,13 +9297,13 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9323,13 +9330,13 @@
         <v>41</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>447</v>
+        <v>41</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>448</v>
+        <v>41</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>41</v>
@@ -9347,13 +9354,13 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>41</v>
@@ -9365,7 +9372,7 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>94</v>
@@ -9379,7 +9386,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9390,7 +9397,7 @@
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>41</v>
@@ -9405,10 +9412,10 @@
         <v>140</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9438,10 +9445,10 @@
         <v>195</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
@@ -9459,13 +9466,13 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>41</v>
@@ -9477,7 +9484,7 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>41</v>
+        <v>450</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>94</v>
@@ -9491,7 +9498,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9502,7 +9509,7 @@
         <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>41</v>
@@ -9514,17 +9521,15 @@
         <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>365</v>
+        <v>140</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>41</v>
@@ -9549,13 +9554,13 @@
         <v>41</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>41</v>
+        <v>454</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>41</v>
+        <v>455</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>41</v>
@@ -9573,13 +9578,13 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>41</v>
@@ -9591,10 +9596,10 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>459</v>
+        <v>41</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>460</v>
+        <v>94</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -9605,7 +9610,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9616,7 +9621,7 @@
         <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>41</v>
@@ -9628,15 +9633,17 @@
         <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>53</v>
+        <v>366</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>120</v>
+        <v>457</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>41</v>
@@ -9685,28 +9692,28 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>122</v>
+        <v>456</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>41</v>
+        <v>460</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>123</v>
+        <v>461</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -9721,14 +9728,14 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>41</v>
@@ -9740,17 +9747,15 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>41</v>
@@ -9799,19 +9804,19 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>41</v>
@@ -9835,7 +9840,7 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>374</v>
+        <v>96</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9848,26 +9853,24 @@
         <v>41</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>375</v>
+        <v>98</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N72" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>41</v>
       </c>
@@ -9915,7 +9918,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -9936,7 +9939,7 @@
         <v>41</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -9951,35 +9954,39 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>288</v>
+        <v>97</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>465</v>
+        <v>376</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>41</v>
       </c>
@@ -10027,28 +10034,28 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>464</v>
+        <v>378</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>467</v>
+        <v>41</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>294</v>
+        <v>94</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
@@ -10059,7 +10066,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10082,13 +10089,13 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>469</v>
+        <v>289</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10139,7 +10146,7 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10157,10 +10164,10 @@
         <v>41</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>473</v>
+        <v>295</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
@@ -10171,7 +10178,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10194,13 +10201,13 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>255</v>
+        <v>470</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10251,7 +10258,7 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10269,10 +10276,10 @@
         <v>41</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>
@@ -10283,7 +10290,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10291,13 +10298,13 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>41</v>
@@ -10306,13 +10313,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>365</v>
+        <v>256</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10351,23 +10358,25 @@
         <v>41</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AB76" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC76" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>41</v>
@@ -10379,10 +10388,10 @@
         <v>41</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>41</v>
+        <v>478</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>94</v>
+        <v>479</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
@@ -10393,7 +10402,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10401,13 +10410,13 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>41</v>
@@ -10416,13 +10425,13 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>53</v>
+        <v>366</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>120</v>
+        <v>481</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>121</v>
+        <v>482</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10461,31 +10470,29 @@
         <v>41</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="AB77" s="2"/>
       <c r="AC77" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>122</v>
+        <v>480</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>41</v>
@@ -10494,7 +10501,7 @@
         <v>41</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>41</v>
@@ -10509,14 +10516,14 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>41</v>
@@ -10528,17 +10535,15 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>41</v>
@@ -10587,19 +10592,19 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>41</v>
@@ -10623,7 +10628,7 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>374</v>
+        <v>96</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10636,26 +10641,24 @@
         <v>41</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>375</v>
+        <v>98</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N79" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>41</v>
       </c>
@@ -10703,7 +10706,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10724,7 +10727,7 @@
         <v>41</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>41</v>
@@ -10739,35 +10742,39 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>487</v>
+        <v>376</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>41</v>
       </c>
@@ -10815,19 +10822,19 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>486</v>
+        <v>378</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>41</v>
@@ -10847,7 +10854,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10870,13 +10877,13 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10927,7 +10934,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -10959,7 +10966,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10970,7 +10977,7 @@
         <v>42</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>41</v>
@@ -10982,13 +10989,13 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11015,13 +11022,13 @@
         <v>41</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>495</v>
+        <v>41</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>496</v>
+        <v>41</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
@@ -11039,13 +11046,13 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>41</v>
@@ -11071,7 +11078,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11079,10 +11086,10 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>41</v>
@@ -11094,17 +11101,15 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>498</v>
+        <v>140</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>41</v>
@@ -11129,13 +11134,13 @@
         <v>41</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>41</v>
+        <v>496</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>41</v>
+        <v>497</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>41</v>
@@ -11153,13 +11158,13 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>41</v>
@@ -11185,7 +11190,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11193,7 +11198,7 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>51</v>
@@ -11208,16 +11213,16 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11267,10 +11272,10 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>51</v>
@@ -11297,25 +11302,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>41</v>
@@ -11324,15 +11327,17 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>365</v>
+        <v>499</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>41</v>
@@ -11381,13 +11386,13 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>41</v>
@@ -11411,23 +11416,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B86" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="C86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>41</v>
@@ -11436,13 +11443,13 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>53</v>
+        <v>366</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>120</v>
+        <v>481</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>121</v>
+        <v>482</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11493,19 +11500,19 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>122</v>
+        <v>480</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>41</v>
@@ -11514,7 +11521,7 @@
         <v>41</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>41</v>
@@ -11529,14 +11536,14 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>41</v>
@@ -11548,17 +11555,15 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>41</v>
@@ -11607,19 +11612,19 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>41</v>
@@ -11643,7 +11648,7 @@
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>374</v>
+        <v>96</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11656,26 +11661,24 @@
         <v>41</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>375</v>
+        <v>98</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N88" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>41</v>
       </c>
@@ -11723,7 +11726,7 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11744,7 +11747,7 @@
         <v>41</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>41</v>
@@ -11759,35 +11762,39 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>487</v>
+        <v>376</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>41</v>
       </c>
@@ -11835,19 +11842,19 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>486</v>
+        <v>378</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>41</v>
@@ -11867,7 +11874,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11890,13 +11897,13 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>506</v>
+        <v>53</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11947,7 +11954,7 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -11979,7 +11986,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11990,7 +11997,7 @@
         <v>42</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>41</v>
@@ -12002,13 +12009,13 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>140</v>
+        <v>507</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12035,11 +12042,13 @@
         <v>41</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X91" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y91" t="s" s="2">
-        <v>507</v>
+        <v>41</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>41</v>
@@ -12057,13 +12066,13 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>41</v>
@@ -12089,7 +12098,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12097,10 +12106,10 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>41</v>
@@ -12112,17 +12121,15 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>498</v>
+        <v>140</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>41</v>
@@ -12147,13 +12154,11 @@
         <v>41</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="X92" s="2"/>
       <c r="Y92" t="s" s="2">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>41</v>
@@ -12171,13 +12176,13 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>41</v>
@@ -12203,7 +12208,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12211,7 +12216,7 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>51</v>
@@ -12226,16 +12231,16 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12285,10 +12290,10 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>51</v>
@@ -12315,8 +12320,122 @@
         <v>41</v>
       </c>
     </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN93">
+  <autoFilter ref="A1:AN94">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12326,7 +12445,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
